--- a/ENR swizzle/VEE Calibration Files/ENR_Cal_Files/NC345C_8371_ENRtable_2023_4_10_1507.xlsx
+++ b/ENR swizzle/VEE Calibration Files/ENR_Cal_Files/NC345C_8371_ENRtable_2023_4_10_1507.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapplen\Documents\GitHub\sandbox\ENR swizzle\VEE Calibration Files\ENR_Cal_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03894DB-302B-44F4-B76F-D27850DC089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECFF752-E9C1-46F9-9D54-33BE0C7880C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CE3FC2C-FBFC-4B3E-8A80-44CB5BF494CC}"/>
+    <workbookView xWindow="35025" yWindow="1155" windowWidth="15750" windowHeight="14295" xr2:uid="{4CE3FC2C-FBFC-4B3E-8A80-44CB5BF494CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GHz</t>
   </si>
@@ -54,18 +54,6 @@
     <t>ENR</t>
   </si>
   <si>
-    <t>ModelNum</t>
-  </si>
-  <si>
-    <t>SerialNum</t>
-  </si>
-  <si>
-    <t>CalID</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
     <t>NC345C_8371_ENRtable_2023_4_10_1507.xlsx</t>
   </si>
   <si>
@@ -88,6 +76,12 @@
   </si>
   <si>
     <t>11_05_2023</t>
+  </si>
+  <si>
+    <t>NC346C</t>
+  </si>
+  <si>
+    <t>Steve Applen</t>
   </si>
 </sst>
 </file>
@@ -127,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +439,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,50 +449,50 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>8371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
